--- a/Code/Results/Cases/Case_4_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9952762683839783</v>
+        <v>1.02801550764843</v>
       </c>
       <c r="D2">
-        <v>1.013953581453911</v>
+        <v>1.030533570490888</v>
       </c>
       <c r="E2">
-        <v>1.010386453275198</v>
+        <v>1.041147292114559</v>
       </c>
       <c r="F2">
-        <v>1.01211137144149</v>
+        <v>1.047901067784118</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043597545651888</v>
+        <v>1.030379935605026</v>
       </c>
       <c r="J2">
-        <v>1.017599189290184</v>
+        <v>1.033170172321515</v>
       </c>
       <c r="K2">
-        <v>1.025221884121966</v>
+        <v>1.033344305584337</v>
       </c>
       <c r="L2">
-        <v>1.02170296019929</v>
+        <v>1.043927630590706</v>
       </c>
       <c r="M2">
-        <v>1.023404515391393</v>
+        <v>1.050662411900232</v>
       </c>
       <c r="N2">
-        <v>1.00979334990908</v>
+        <v>1.015064389561419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9999426537976808</v>
+        <v>1.028988702716025</v>
       </c>
       <c r="D3">
-        <v>1.017282896297024</v>
+        <v>1.031226782751594</v>
       </c>
       <c r="E3">
-        <v>1.014852420076733</v>
+        <v>1.042141903166911</v>
       </c>
       <c r="F3">
-        <v>1.017155325790596</v>
+        <v>1.049039441223654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044788812593909</v>
+        <v>1.030531646529042</v>
       </c>
       <c r="J3">
-        <v>1.020434882250518</v>
+        <v>1.033783675680557</v>
       </c>
       <c r="K3">
-        <v>1.027699313767093</v>
+        <v>1.033846202007831</v>
       </c>
       <c r="L3">
-        <v>1.025298724032127</v>
+        <v>1.044732326480766</v>
       </c>
       <c r="M3">
-        <v>1.02757330752104</v>
+        <v>1.051611877179309</v>
       </c>
       <c r="N3">
-        <v>1.01074148489458</v>
+        <v>1.015268412893606</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002896105859415</v>
+        <v>1.029618448006226</v>
       </c>
       <c r="D4">
-        <v>1.019389314136201</v>
+        <v>1.031674817416383</v>
       </c>
       <c r="E4">
-        <v>1.017684506772062</v>
+        <v>1.042785924746545</v>
       </c>
       <c r="F4">
-        <v>1.020354895101681</v>
+        <v>1.049776784682587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045526664926408</v>
+        <v>1.030627791595851</v>
       </c>
       <c r="J4">
-        <v>1.022226017965106</v>
+        <v>1.034180089201102</v>
       </c>
       <c r="K4">
-        <v>1.029259226538158</v>
+        <v>1.034169769491996</v>
       </c>
       <c r="L4">
-        <v>1.027574079729532</v>
+        <v>1.045252848801738</v>
       </c>
       <c r="M4">
-        <v>1.030213707997699</v>
+        <v>1.05222640139233</v>
       </c>
       <c r="N4">
-        <v>1.011340244138121</v>
+        <v>1.015400202719807</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004122517063754</v>
+        <v>1.029883198009453</v>
       </c>
       <c r="D5">
-        <v>1.020263741385572</v>
+        <v>1.031863045528679</v>
       </c>
       <c r="E5">
-        <v>1.018861811067998</v>
+        <v>1.043056776501514</v>
       </c>
       <c r="F5">
-        <v>1.021685213539812</v>
+        <v>1.050086940514234</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045829124274659</v>
+        <v>1.030667726259716</v>
       </c>
       <c r="J5">
-        <v>1.022968873778932</v>
+        <v>1.034346605773229</v>
       </c>
       <c r="K5">
-        <v>1.029904973541409</v>
+        <v>1.034305510793863</v>
       </c>
       <c r="L5">
-        <v>1.028518767987811</v>
+        <v>1.045471635153096</v>
       </c>
       <c r="M5">
-        <v>1.031310555965024</v>
+        <v>1.052484784367445</v>
       </c>
       <c r="N5">
-        <v>1.011588541814394</v>
+        <v>1.015455552597609</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004327560763685</v>
+        <v>1.029927650985669</v>
       </c>
       <c r="D6">
-        <v>1.020409919851503</v>
+        <v>1.03189464245407</v>
       </c>
       <c r="E6">
-        <v>1.019058719669356</v>
+        <v>1.043102259845678</v>
       </c>
       <c r="F6">
-        <v>1.021907729715457</v>
+        <v>1.05013902738838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045879459527189</v>
+        <v>1.030674403022404</v>
       </c>
       <c r="J6">
-        <v>1.02309301748391</v>
+        <v>1.034374556664805</v>
       </c>
       <c r="K6">
-        <v>1.030012816670014</v>
+        <v>1.034328285532315</v>
       </c>
       <c r="L6">
-        <v>1.028676700978289</v>
+        <v>1.045508367908831</v>
       </c>
       <c r="M6">
-        <v>1.031493962666832</v>
+        <v>1.052528170160341</v>
       </c>
       <c r="N6">
-        <v>1.011630034579309</v>
+        <v>1.015464842878856</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002912552280913</v>
+        <v>1.029621985589288</v>
       </c>
       <c r="D7">
-        <v>1.019401041483476</v>
+        <v>1.03167733302488</v>
       </c>
       <c r="E7">
-        <v>1.017700289597247</v>
+        <v>1.04278954346889</v>
       </c>
       <c r="F7">
-        <v>1.02037272819967</v>
+        <v>1.049780928306475</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045530736584324</v>
+        <v>1.030628327110229</v>
       </c>
       <c r="J7">
-        <v>1.022235983443297</v>
+        <v>1.034182314737559</v>
       </c>
       <c r="K7">
-        <v>1.029267894119919</v>
+        <v>1.034171584400622</v>
       </c>
       <c r="L7">
-        <v>1.027586748805376</v>
+        <v>1.045255772398448</v>
       </c>
       <c r="M7">
-        <v>1.030228415277668</v>
+        <v>1.052229853773573</v>
       </c>
       <c r="N7">
-        <v>1.011343575203552</v>
+        <v>1.015400942522294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9968673245971034</v>
+        <v>1.028344398460358</v>
       </c>
       <c r="D8">
-        <v>1.015088867625547</v>
+        <v>1.030767951795589</v>
       </c>
       <c r="E8">
-        <v>1.01190800701595</v>
+        <v>1.041483333716042</v>
       </c>
       <c r="F8">
-        <v>1.01382965957091</v>
+        <v>1.048285632983888</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044007067928092</v>
+        <v>1.030431625317149</v>
       </c>
       <c r="J8">
-        <v>1.018566791020443</v>
+        <v>1.033377625107292</v>
       </c>
       <c r="K8">
-        <v>1.026068257139107</v>
+        <v>1.033514170355451</v>
       </c>
       <c r="L8">
-        <v>1.022929056995496</v>
+        <v>1.044199616118896</v>
       </c>
       <c r="M8">
-        <v>1.02482550205554</v>
+        <v>1.050983255384382</v>
       </c>
       <c r="N8">
-        <v>1.010116898200635</v>
+        <v>1.015133387040635</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.985681385344615</v>
+        <v>1.026093321070607</v>
       </c>
       <c r="D9">
-        <v>1.007106924681978</v>
+        <v>1.02916157402011</v>
       </c>
       <c r="E9">
-        <v>1.001235201794531</v>
+        <v>1.039185037169734</v>
       </c>
       <c r="F9">
-        <v>1.001779959766837</v>
+        <v>1.045656416255829</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041061871122035</v>
+        <v>1.030069553008151</v>
       </c>
       <c r="J9">
-        <v>1.011750104204832</v>
+        <v>1.031955364565717</v>
       </c>
       <c r="K9">
-        <v>1.020085739805914</v>
+        <v>1.032346622192464</v>
       </c>
       <c r="L9">
-        <v>1.014308270449766</v>
+        <v>1.042337259833306</v>
       </c>
       <c r="M9">
-        <v>1.014844224226289</v>
+        <v>1.048787812022154</v>
       </c>
       <c r="N9">
-        <v>1.007837132130072</v>
+        <v>1.014660192738314</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9778235715035077</v>
+        <v>1.02459275520844</v>
       </c>
       <c r="D10">
-        <v>1.0015029137177</v>
+        <v>1.028088078764859</v>
       </c>
       <c r="E10">
-        <v>0.9937704188028972</v>
+        <v>1.037655169923062</v>
       </c>
       <c r="F10">
-        <v>0.9933549452396547</v>
+        <v>1.043907450235778</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038911768622394</v>
+        <v>1.029817814409285</v>
       </c>
       <c r="J10">
-        <v>1.006945541918457</v>
+        <v>1.031004337078451</v>
       </c>
       <c r="K10">
-        <v>1.015845085510134</v>
+        <v>1.031562185936144</v>
       </c>
       <c r="L10">
-        <v>1.008253068638085</v>
+        <v>1.04109486517524</v>
       </c>
       <c r="M10">
-        <v>1.00784522373194</v>
+        <v>1.047325032302565</v>
       </c>
       <c r="N10">
-        <v>1.006229937907789</v>
+        <v>1.0143435820835</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9743158143249898</v>
+        <v>1.023943033455178</v>
       </c>
       <c r="D11">
-        <v>0.9990031711366681</v>
+        <v>1.027622645834081</v>
       </c>
       <c r="E11">
-        <v>0.9904463286574199</v>
+        <v>1.036993280169883</v>
       </c>
       <c r="F11">
-        <v>0.9896035418644112</v>
+        <v>1.043151044580941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037933631172677</v>
+        <v>1.029706359588645</v>
       </c>
       <c r="J11">
-        <v>1.004797544886245</v>
+        <v>1.030591861305111</v>
       </c>
       <c r="K11">
-        <v>1.013943910705651</v>
+        <v>1.031221086022722</v>
       </c>
       <c r="L11">
-        <v>1.005550690554571</v>
+        <v>1.040556705371892</v>
       </c>
       <c r="M11">
-        <v>1.004724220005378</v>
+        <v>1.046691838904943</v>
       </c>
       <c r="N11">
-        <v>1.005511361805947</v>
+        <v>1.014206216611726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9729961102901828</v>
+        <v>1.023701703041304</v>
       </c>
       <c r="D12">
-        <v>0.9980630992642251</v>
+        <v>1.027449673842474</v>
       </c>
       <c r="E12">
-        <v>0.9891970038350923</v>
+        <v>1.036747508374488</v>
       </c>
       <c r="F12">
-        <v>0.9881936232147105</v>
+        <v>1.042870218496634</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037562961721757</v>
+        <v>1.029664592701441</v>
       </c>
       <c r="J12">
-        <v>1.003988983593904</v>
+        <v>1.030438548538854</v>
       </c>
       <c r="K12">
-        <v>1.013227501552113</v>
+        <v>1.031094171608916</v>
       </c>
       <c r="L12">
-        <v>1.004534140676425</v>
+        <v>1.040356780019773</v>
       </c>
       <c r="M12">
-        <v>1.003550564991583</v>
+        <v>1.046456673016479</v>
       </c>
       <c r="N12">
-        <v>1.005240869107251</v>
+        <v>1.014155152441185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.973279966106263</v>
+        <v>1.023753468997107</v>
       </c>
       <c r="D13">
-        <v>0.9982652803219793</v>
+        <v>1.027486780954517</v>
       </c>
       <c r="E13">
-        <v>0.9894656632160393</v>
+        <v>1.036800223471515</v>
       </c>
       <c r="F13">
-        <v>0.9884968175255339</v>
+        <v>1.042930450457697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037642808463789</v>
+        <v>1.029673568466911</v>
       </c>
       <c r="J13">
-        <v>1.004162916122827</v>
+        <v>1.030471439206312</v>
       </c>
       <c r="K13">
-        <v>1.013381644553955</v>
+        <v>1.031121404886811</v>
       </c>
       <c r="L13">
-        <v>1.004752783301083</v>
+        <v>1.040399665984897</v>
       </c>
       <c r="M13">
-        <v>1.003802981927261</v>
+        <v>1.046507115520393</v>
       </c>
       <c r="N13">
-        <v>1.005299055799534</v>
+        <v>1.014166107709574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9742070749778692</v>
+        <v>1.023923084901233</v>
       </c>
       <c r="D14">
-        <v>0.9989257036512367</v>
+        <v>1.027608349734713</v>
       </c>
       <c r="E14">
-        <v>0.9903433620712083</v>
+        <v>1.036972962889931</v>
       </c>
       <c r="F14">
-        <v>0.9894873395474799</v>
+        <v>1.043127828620269</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037903142974084</v>
+        <v>1.029702914620679</v>
       </c>
       <c r="J14">
-        <v>1.004730930524146</v>
+        <v>1.030579190479729</v>
       </c>
       <c r="K14">
-        <v>1.013884903604566</v>
+        <v>1.03121059961386</v>
       </c>
       <c r="L14">
-        <v>1.005466926780922</v>
+        <v>1.040540180065853</v>
       </c>
       <c r="M14">
-        <v>1.004627503381109</v>
+        <v>1.046672399398725</v>
       </c>
       <c r="N14">
-        <v>1.005489076938457</v>
+        <v>1.014201996456912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9747760458854206</v>
+        <v>1.024027591549109</v>
       </c>
       <c r="D15">
-        <v>0.9993310633948991</v>
+        <v>1.027683240446337</v>
       </c>
       <c r="E15">
-        <v>0.9908821798080302</v>
+        <v>1.037079404429178</v>
       </c>
       <c r="F15">
-        <v>0.9900954191295959</v>
+        <v>1.043249457934946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038062562015456</v>
+        <v>1.029720947059245</v>
       </c>
       <c r="J15">
-        <v>1.005079468143671</v>
+        <v>1.030645566238925</v>
       </c>
       <c r="K15">
-        <v>1.014193608083964</v>
+        <v>1.031265526997502</v>
       </c>
       <c r="L15">
-        <v>1.005905221211227</v>
+        <v>1.040626751619496</v>
       </c>
       <c r="M15">
-        <v>1.005133588583165</v>
+        <v>1.046774240279591</v>
       </c>
       <c r="N15">
-        <v>1.005605675072307</v>
+        <v>1.014224103335293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9780540723371246</v>
+        <v>1.024635875816555</v>
       </c>
       <c r="D16">
-        <v>1.001667224671658</v>
+        <v>1.028118955411524</v>
       </c>
       <c r="E16">
-        <v>0.9939890252785197</v>
+        <v>1.037699109054303</v>
       </c>
       <c r="F16">
-        <v>0.9936016566342226</v>
+        <v>1.043957669540237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038975669264805</v>
+        <v>1.029825159718284</v>
       </c>
       <c r="J16">
-        <v>1.007086627789934</v>
+        <v>1.031031697562782</v>
       </c>
       <c r="K16">
-        <v>1.015969852524715</v>
+        <v>1.031584793464573</v>
       </c>
       <c r="L16">
-        <v>1.008430664860953</v>
+        <v>1.041130577001987</v>
       </c>
       <c r="M16">
-        <v>1.008050383551878</v>
+        <v>1.047367059500075</v>
       </c>
       <c r="N16">
-        <v>1.006277135284263</v>
+        <v>1.014352692884872</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9800814589111576</v>
+        <v>1.025017445482477</v>
       </c>
       <c r="D17">
-        <v>1.003112662710981</v>
+        <v>1.028392107345426</v>
       </c>
       <c r="E17">
-        <v>0.9959127333601998</v>
+        <v>1.038087981741685</v>
       </c>
       <c r="F17">
-        <v>0.995772712227614</v>
+        <v>1.044402155263805</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039535638712423</v>
+        <v>1.029889873916782</v>
       </c>
       <c r="J17">
-        <v>1.008327198388016</v>
+        <v>1.031273727252854</v>
       </c>
       <c r="K17">
-        <v>1.017066334902744</v>
+        <v>1.031784677501625</v>
       </c>
       <c r="L17">
-        <v>1.009992808715673</v>
+        <v>1.04144656151598</v>
       </c>
       <c r="M17">
-        <v>1.009855269325208</v>
+        <v>1.047738973062213</v>
       </c>
       <c r="N17">
-        <v>1.006692138515601</v>
+        <v>1.014433281301981</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9812539100006908</v>
+        <v>1.025240011800449</v>
       </c>
       <c r="D18">
-        <v>1.003948742731452</v>
+        <v>1.028551374055836</v>
       </c>
       <c r="E18">
-        <v>0.9970260018777533</v>
+        <v>1.038314857912812</v>
       </c>
       <c r="F18">
-        <v>0.9970291521781672</v>
+        <v>1.044661503877708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039857731115825</v>
+        <v>1.029927384155663</v>
       </c>
       <c r="J18">
-        <v>1.009044319728136</v>
+        <v>1.031414833957522</v>
       </c>
       <c r="K18">
-        <v>1.017699662073758</v>
+        <v>1.03190112808762</v>
       </c>
       <c r="L18">
-        <v>1.010896268626947</v>
+        <v>1.04163085112192</v>
       </c>
       <c r="M18">
-        <v>1.010899364128535</v>
+        <v>1.047955923215458</v>
       </c>
       <c r="N18">
-        <v>1.006932030205165</v>
+        <v>1.014480261004886</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.981652001904263</v>
+        <v>1.025315901698051</v>
       </c>
       <c r="D19">
-        <v>1.00423265021005</v>
+        <v>1.028605669986651</v>
       </c>
       <c r="E19">
-        <v>0.9974041292800926</v>
+        <v>1.038392225852454</v>
       </c>
       <c r="F19">
-        <v>0.9974559144239168</v>
+        <v>1.044749949906819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039966795944337</v>
+        <v>1.029940134054059</v>
       </c>
       <c r="J19">
-        <v>1.009287755905646</v>
+        <v>1.031462936638214</v>
       </c>
       <c r="K19">
-        <v>1.017914566871823</v>
+        <v>1.031940811233177</v>
       </c>
       <c r="L19">
-        <v>1.011203036856319</v>
+        <v>1.041693685911052</v>
       </c>
       <c r="M19">
-        <v>1.011253926984209</v>
+        <v>1.048029900869578</v>
       </c>
       <c r="N19">
-        <v>1.007013463751462</v>
+        <v>1.01449627542691</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9798649897294923</v>
+        <v>1.024976506337267</v>
       </c>
       <c r="D20">
-        <v>1.002958310891213</v>
+        <v>1.028362806739503</v>
       </c>
       <c r="E20">
-        <v>0.9957072534167885</v>
+        <v>1.038046253864806</v>
       </c>
       <c r="F20">
-        <v>0.9955408092088951</v>
+        <v>1.044354457088515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039476029525203</v>
+        <v>1.029882955149817</v>
       </c>
       <c r="J20">
-        <v>1.008194771225506</v>
+        <v>1.031247766489846</v>
       </c>
       <c r="K20">
-        <v>1.016949340664042</v>
+        <v>1.031763246145435</v>
       </c>
       <c r="L20">
-        <v>1.009826007932372</v>
+        <v>1.041412661311112</v>
       </c>
       <c r="M20">
-        <v>1.009662523929705</v>
+        <v>1.047699068261805</v>
       </c>
       <c r="N20">
-        <v>1.006647838573659</v>
+        <v>1.014424637631671</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9739345353800976</v>
+        <v>1.023873137100676</v>
       </c>
       <c r="D21">
-        <v>0.9987315491843333</v>
+        <v>1.027572553220795</v>
       </c>
       <c r="E21">
-        <v>0.990085311829447</v>
+        <v>1.036922093127052</v>
       </c>
       <c r="F21">
-        <v>0.9891961185082682</v>
+        <v>1.043069701896874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037826685956653</v>
+        <v>1.02969428305326</v>
       </c>
       <c r="J21">
-        <v>1.004563964386957</v>
+        <v>1.030547463197024</v>
       </c>
       <c r="K21">
-        <v>1.013736992669614</v>
+        <v>1.031184339911565</v>
       </c>
       <c r="L21">
-        <v>1.005256987476904</v>
+        <v>1.040498802964034</v>
       </c>
       <c r="M21">
-        <v>1.004385105884624</v>
+        <v>1.046623726576401</v>
       </c>
       <c r="N21">
-        <v>1.005433220820227</v>
+        <v>1.01419142923229</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9701082890728961</v>
+        <v>1.023179435098394</v>
       </c>
       <c r="D22">
-        <v>0.9960068454892387</v>
+        <v>1.027075172279327</v>
       </c>
       <c r="E22">
-        <v>0.9864655940550664</v>
+        <v>1.036215772159452</v>
       </c>
       <c r="F22">
-        <v>0.985111079139636</v>
+        <v>1.042262716062901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036747032054091</v>
+        <v>1.029573530831871</v>
       </c>
       <c r="J22">
-        <v>1.002218926603444</v>
+        <v>1.030106571174589</v>
       </c>
       <c r="K22">
-        <v>1.011657824778101</v>
+        <v>1.030819116631527</v>
       </c>
       <c r="L22">
-        <v>1.002310024231197</v>
+        <v>1.039924057296119</v>
       </c>
       <c r="M22">
-        <v>1.000983373337474</v>
+        <v>1.0459477922208</v>
       </c>
       <c r="N22">
-        <v>1.004648722076183</v>
+        <v>1.014044567524054</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9721462371279901</v>
+        <v>1.023547176745372</v>
       </c>
       <c r="D23">
-        <v>0.9974578288138904</v>
+        <v>1.027338892010531</v>
       </c>
       <c r="E23">
-        <v>0.9883928203356634</v>
+        <v>1.036590160282067</v>
       </c>
       <c r="F23">
-        <v>0.9872860639139677</v>
+        <v>1.042690439498169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037323513315803</v>
+        <v>1.029637745268745</v>
       </c>
       <c r="J23">
-        <v>1.003468164964767</v>
+        <v>1.030340351541463</v>
       </c>
       <c r="K23">
-        <v>1.012765831862087</v>
+        <v>1.031012845893873</v>
       </c>
       <c r="L23">
-        <v>1.003879543766028</v>
+        <v>1.040228756508636</v>
       </c>
       <c r="M23">
-        <v>1.002794903246566</v>
+        <v>1.046306101062284</v>
       </c>
       <c r="N23">
-        <v>1.005066636513964</v>
+        <v>1.014122443842585</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9799628339437709</v>
+        <v>1.024995004964824</v>
       </c>
       <c r="D24">
-        <v>1.003028077486004</v>
+        <v>1.028376046601937</v>
       </c>
       <c r="E24">
-        <v>0.9958001280865885</v>
+        <v>1.038065108731429</v>
       </c>
       <c r="F24">
-        <v>0.9956456267249005</v>
+        <v>1.044376009569964</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039502978325371</v>
+        <v>1.029886082173422</v>
       </c>
       <c r="J24">
-        <v>1.008254629352966</v>
+        <v>1.031259497242353</v>
       </c>
       <c r="K24">
-        <v>1.017002224550217</v>
+        <v>1.031772930480404</v>
       </c>
       <c r="L24">
-        <v>1.009901401809525</v>
+        <v>1.041427979412553</v>
       </c>
       <c r="M24">
-        <v>1.009749643995117</v>
+        <v>1.047717099463813</v>
       </c>
       <c r="N24">
-        <v>1.006667862511708</v>
+        <v>1.014428543415039</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9886405634620898</v>
+        <v>1.026675253251066</v>
       </c>
       <c r="D25">
-        <v>1.009218342614835</v>
+        <v>1.029577320201899</v>
       </c>
       <c r="E25">
-        <v>1.004053183660566</v>
+        <v>1.039778793812731</v>
       </c>
       <c r="F25">
-        <v>1.004960886526699</v>
+        <v>1.046335455750526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041855267092451</v>
+        <v>1.030164985523665</v>
       </c>
       <c r="J25">
-        <v>1.013556360110726</v>
+        <v>1.032323558452468</v>
       </c>
       <c r="K25">
-        <v>1.021675221500419</v>
+        <v>1.032649534878781</v>
       </c>
       <c r="L25">
-        <v>1.016588903339261</v>
+        <v>1.042818871155482</v>
       </c>
       <c r="M25">
-        <v>1.017482676176026</v>
+        <v>1.04935523907354</v>
       </c>
       <c r="N25">
-        <v>1.008441290989243</v>
+        <v>1.014782728101261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_164/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_164/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02801550764843</v>
+        <v>0.9952762683839778</v>
       </c>
       <c r="D2">
-        <v>1.030533570490888</v>
+        <v>1.013953581453911</v>
       </c>
       <c r="E2">
-        <v>1.041147292114559</v>
+        <v>1.010386453275198</v>
       </c>
       <c r="F2">
-        <v>1.047901067784118</v>
+        <v>1.012111371441489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030379935605026</v>
+        <v>1.043597545651888</v>
       </c>
       <c r="J2">
-        <v>1.033170172321515</v>
+        <v>1.017599189290183</v>
       </c>
       <c r="K2">
-        <v>1.033344305584337</v>
+        <v>1.025221884121966</v>
       </c>
       <c r="L2">
-        <v>1.043927630590706</v>
+        <v>1.02170296019929</v>
       </c>
       <c r="M2">
-        <v>1.050662411900232</v>
+        <v>1.023404515391393</v>
       </c>
       <c r="N2">
-        <v>1.015064389561419</v>
+        <v>1.00979334990908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028988702716025</v>
+        <v>0.9999426537976814</v>
       </c>
       <c r="D3">
-        <v>1.031226782751594</v>
+        <v>1.017282896297025</v>
       </c>
       <c r="E3">
-        <v>1.042141903166911</v>
+        <v>1.014852420076733</v>
       </c>
       <c r="F3">
-        <v>1.049039441223654</v>
+        <v>1.017155325790597</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030531646529042</v>
+        <v>1.044788812593909</v>
       </c>
       <c r="J3">
-        <v>1.033783675680557</v>
+        <v>1.020434882250519</v>
       </c>
       <c r="K3">
-        <v>1.033846202007831</v>
+        <v>1.027699313767094</v>
       </c>
       <c r="L3">
-        <v>1.044732326480766</v>
+        <v>1.025298724032127</v>
       </c>
       <c r="M3">
-        <v>1.051611877179309</v>
+        <v>1.027573307521041</v>
       </c>
       <c r="N3">
-        <v>1.015268412893606</v>
+        <v>1.010741484894581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029618448006226</v>
+        <v>1.002896105859415</v>
       </c>
       <c r="D4">
-        <v>1.031674817416383</v>
+        <v>1.019389314136201</v>
       </c>
       <c r="E4">
-        <v>1.042785924746545</v>
+        <v>1.017684506772063</v>
       </c>
       <c r="F4">
-        <v>1.049776784682587</v>
+        <v>1.020354895101682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030627791595851</v>
+        <v>1.045526664926409</v>
       </c>
       <c r="J4">
-        <v>1.034180089201102</v>
+        <v>1.022226017965106</v>
       </c>
       <c r="K4">
-        <v>1.034169769491996</v>
+        <v>1.029259226538158</v>
       </c>
       <c r="L4">
-        <v>1.045252848801738</v>
+        <v>1.027574079729533</v>
       </c>
       <c r="M4">
-        <v>1.05222640139233</v>
+        <v>1.0302137079977</v>
       </c>
       <c r="N4">
-        <v>1.015400202719807</v>
+        <v>1.011340244138121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029883198009453</v>
+        <v>1.004122517063754</v>
       </c>
       <c r="D5">
-        <v>1.031863045528679</v>
+        <v>1.020263741385572</v>
       </c>
       <c r="E5">
-        <v>1.043056776501514</v>
+        <v>1.018861811067997</v>
       </c>
       <c r="F5">
-        <v>1.050086940514234</v>
+        <v>1.021685213539812</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030667726259716</v>
+        <v>1.045829124274659</v>
       </c>
       <c r="J5">
-        <v>1.034346605773229</v>
+        <v>1.022968873778932</v>
       </c>
       <c r="K5">
-        <v>1.034305510793863</v>
+        <v>1.029904973541408</v>
       </c>
       <c r="L5">
-        <v>1.045471635153096</v>
+        <v>1.02851876798781</v>
       </c>
       <c r="M5">
-        <v>1.052484784367445</v>
+        <v>1.031310555965024</v>
       </c>
       <c r="N5">
-        <v>1.015455552597609</v>
+        <v>1.011588541814393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029927650985669</v>
+        <v>1.004327560763685</v>
       </c>
       <c r="D6">
-        <v>1.03189464245407</v>
+        <v>1.020409919851501</v>
       </c>
       <c r="E6">
-        <v>1.043102259845678</v>
+        <v>1.019058719669355</v>
       </c>
       <c r="F6">
-        <v>1.05013902738838</v>
+        <v>1.021907729715456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030674403022404</v>
+        <v>1.045879459527188</v>
       </c>
       <c r="J6">
-        <v>1.034374556664805</v>
+        <v>1.023093017483909</v>
       </c>
       <c r="K6">
-        <v>1.034328285532315</v>
+        <v>1.030012816670013</v>
       </c>
       <c r="L6">
-        <v>1.045508367908831</v>
+        <v>1.028676700978288</v>
       </c>
       <c r="M6">
-        <v>1.052528170160341</v>
+        <v>1.031493962666831</v>
       </c>
       <c r="N6">
-        <v>1.015464842878856</v>
+        <v>1.011630034579309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029621985589288</v>
+        <v>1.002912552280913</v>
       </c>
       <c r="D7">
-        <v>1.03167733302488</v>
+        <v>1.019401041483476</v>
       </c>
       <c r="E7">
-        <v>1.04278954346889</v>
+        <v>1.017700289597247</v>
       </c>
       <c r="F7">
-        <v>1.049780928306475</v>
+        <v>1.02037272819967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030628327110229</v>
+        <v>1.045530736584324</v>
       </c>
       <c r="J7">
-        <v>1.034182314737559</v>
+        <v>1.022235983443298</v>
       </c>
       <c r="K7">
-        <v>1.034171584400622</v>
+        <v>1.029267894119919</v>
       </c>
       <c r="L7">
-        <v>1.045255772398448</v>
+        <v>1.027586748805376</v>
       </c>
       <c r="M7">
-        <v>1.052229853773573</v>
+        <v>1.030228415277668</v>
       </c>
       <c r="N7">
-        <v>1.015400942522294</v>
+        <v>1.011343575203552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028344398460358</v>
+        <v>0.9968673245971033</v>
       </c>
       <c r="D8">
-        <v>1.030767951795589</v>
+        <v>1.015088867625547</v>
       </c>
       <c r="E8">
-        <v>1.041483333716042</v>
+        <v>1.01190800701595</v>
       </c>
       <c r="F8">
-        <v>1.048285632983888</v>
+        <v>1.01382965957091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030431625317149</v>
+        <v>1.044007067928092</v>
       </c>
       <c r="J8">
-        <v>1.033377625107292</v>
+        <v>1.018566791020443</v>
       </c>
       <c r="K8">
-        <v>1.033514170355451</v>
+        <v>1.026068257139107</v>
       </c>
       <c r="L8">
-        <v>1.044199616118896</v>
+        <v>1.022929056995496</v>
       </c>
       <c r="M8">
-        <v>1.050983255384382</v>
+        <v>1.024825502055541</v>
       </c>
       <c r="N8">
-        <v>1.015133387040635</v>
+        <v>1.010116898200635</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026093321070607</v>
+        <v>0.9856813853446156</v>
       </c>
       <c r="D9">
-        <v>1.02916157402011</v>
+        <v>1.007106924681978</v>
       </c>
       <c r="E9">
-        <v>1.039185037169734</v>
+        <v>1.001235201794532</v>
       </c>
       <c r="F9">
-        <v>1.045656416255829</v>
+        <v>1.001779959766838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030069553008151</v>
+        <v>1.041061871122036</v>
       </c>
       <c r="J9">
-        <v>1.031955364565717</v>
+        <v>1.011750104204832</v>
       </c>
       <c r="K9">
-        <v>1.032346622192464</v>
+        <v>1.020085739805915</v>
       </c>
       <c r="L9">
-        <v>1.042337259833306</v>
+        <v>1.014308270449767</v>
       </c>
       <c r="M9">
-        <v>1.048787812022154</v>
+        <v>1.01484422422629</v>
       </c>
       <c r="N9">
-        <v>1.014660192738314</v>
+        <v>1.007837132130072</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02459275520844</v>
+        <v>0.9778235715035085</v>
       </c>
       <c r="D10">
-        <v>1.028088078764859</v>
+        <v>1.001502913717701</v>
       </c>
       <c r="E10">
-        <v>1.037655169923062</v>
+        <v>0.9937704188028976</v>
       </c>
       <c r="F10">
-        <v>1.043907450235778</v>
+        <v>0.9933549452396551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029817814409285</v>
+        <v>1.038911768622394</v>
       </c>
       <c r="J10">
-        <v>1.031004337078451</v>
+        <v>1.006945541918457</v>
       </c>
       <c r="K10">
-        <v>1.031562185936144</v>
+        <v>1.015845085510135</v>
       </c>
       <c r="L10">
-        <v>1.04109486517524</v>
+        <v>1.008253068638085</v>
       </c>
       <c r="M10">
-        <v>1.047325032302565</v>
+        <v>1.00784522373194</v>
       </c>
       <c r="N10">
-        <v>1.0143435820835</v>
+        <v>1.006229937907789</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023943033455178</v>
+        <v>0.9743158143249898</v>
       </c>
       <c r="D11">
-        <v>1.027622645834081</v>
+        <v>0.9990031711366679</v>
       </c>
       <c r="E11">
-        <v>1.036993280169883</v>
+        <v>0.9904463286574194</v>
       </c>
       <c r="F11">
-        <v>1.043151044580941</v>
+        <v>0.9896035418644109</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029706359588645</v>
+        <v>1.037933631172676</v>
       </c>
       <c r="J11">
-        <v>1.030591861305111</v>
+        <v>1.004797544886245</v>
       </c>
       <c r="K11">
-        <v>1.031221086022722</v>
+        <v>1.013943910705651</v>
       </c>
       <c r="L11">
-        <v>1.040556705371892</v>
+        <v>1.005550690554571</v>
       </c>
       <c r="M11">
-        <v>1.046691838904943</v>
+        <v>1.004724220005377</v>
       </c>
       <c r="N11">
-        <v>1.014206216611726</v>
+        <v>1.005511361805947</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023701703041304</v>
+        <v>0.9729961102901835</v>
       </c>
       <c r="D12">
-        <v>1.027449673842474</v>
+        <v>0.9980630992642255</v>
       </c>
       <c r="E12">
-        <v>1.036747508374488</v>
+        <v>0.9891970038350926</v>
       </c>
       <c r="F12">
-        <v>1.042870218496634</v>
+        <v>0.9881936232147112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029664592701441</v>
+        <v>1.037562961721757</v>
       </c>
       <c r="J12">
-        <v>1.030438548538854</v>
+        <v>1.003988983593904</v>
       </c>
       <c r="K12">
-        <v>1.031094171608916</v>
+        <v>1.013227501552114</v>
       </c>
       <c r="L12">
-        <v>1.040356780019773</v>
+        <v>1.004534140676425</v>
       </c>
       <c r="M12">
-        <v>1.046456673016479</v>
+        <v>1.003550564991584</v>
       </c>
       <c r="N12">
-        <v>1.014155152441185</v>
+        <v>1.005240869107251</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023753468997107</v>
+        <v>0.9732799661062623</v>
       </c>
       <c r="D13">
-        <v>1.027486780954517</v>
+        <v>0.9982652803219789</v>
       </c>
       <c r="E13">
-        <v>1.036800223471515</v>
+        <v>0.9894656632160383</v>
       </c>
       <c r="F13">
-        <v>1.042930450457697</v>
+        <v>0.9884968175255328</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029673568466911</v>
+        <v>1.037642808463789</v>
       </c>
       <c r="J13">
-        <v>1.030471439206312</v>
+        <v>1.004162916122826</v>
       </c>
       <c r="K13">
-        <v>1.031121404886811</v>
+        <v>1.013381644553954</v>
       </c>
       <c r="L13">
-        <v>1.040399665984897</v>
+        <v>1.004752783301082</v>
       </c>
       <c r="M13">
-        <v>1.046507115520393</v>
+        <v>1.00380298192726</v>
       </c>
       <c r="N13">
-        <v>1.014166107709574</v>
+        <v>1.005299055799534</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023923084901233</v>
+        <v>0.9742070749778685</v>
       </c>
       <c r="D14">
-        <v>1.027608349734713</v>
+        <v>0.9989257036512363</v>
       </c>
       <c r="E14">
-        <v>1.036972962889931</v>
+        <v>0.9903433620712078</v>
       </c>
       <c r="F14">
-        <v>1.043127828620269</v>
+        <v>0.9894873395474792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029702914620679</v>
+        <v>1.037903142974083</v>
       </c>
       <c r="J14">
-        <v>1.030579190479729</v>
+        <v>1.004730930524146</v>
       </c>
       <c r="K14">
-        <v>1.03121059961386</v>
+        <v>1.013884903604566</v>
       </c>
       <c r="L14">
-        <v>1.040540180065853</v>
+        <v>1.005466926780921</v>
       </c>
       <c r="M14">
-        <v>1.046672399398725</v>
+        <v>1.004627503381109</v>
       </c>
       <c r="N14">
-        <v>1.014201996456912</v>
+        <v>1.005489076938457</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024027591549109</v>
+        <v>0.9747760458854217</v>
       </c>
       <c r="D15">
-        <v>1.027683240446337</v>
+        <v>0.9993310633949005</v>
       </c>
       <c r="E15">
-        <v>1.037079404429178</v>
+        <v>0.9908821798080317</v>
       </c>
       <c r="F15">
-        <v>1.043249457934946</v>
+        <v>0.9900954191295971</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029720947059245</v>
+        <v>1.038062562015457</v>
       </c>
       <c r="J15">
-        <v>1.030645566238925</v>
+        <v>1.005079468143672</v>
       </c>
       <c r="K15">
-        <v>1.031265526997502</v>
+        <v>1.014193608083965</v>
       </c>
       <c r="L15">
-        <v>1.040626751619496</v>
+        <v>1.005905221211228</v>
       </c>
       <c r="M15">
-        <v>1.046774240279591</v>
+        <v>1.005133588583166</v>
       </c>
       <c r="N15">
-        <v>1.014224103335293</v>
+        <v>1.005605675072307</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024635875816555</v>
+        <v>0.9780540723371259</v>
       </c>
       <c r="D16">
-        <v>1.028118955411524</v>
+        <v>1.00166722467166</v>
       </c>
       <c r="E16">
-        <v>1.037699109054303</v>
+        <v>0.9939890252785212</v>
       </c>
       <c r="F16">
-        <v>1.043957669540237</v>
+        <v>0.9936016566342238</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029825159718284</v>
+        <v>1.038975669264806</v>
       </c>
       <c r="J16">
-        <v>1.031031697562782</v>
+        <v>1.007086627789936</v>
       </c>
       <c r="K16">
-        <v>1.031584793464573</v>
+        <v>1.015969852524716</v>
       </c>
       <c r="L16">
-        <v>1.041130577001987</v>
+        <v>1.008430664860954</v>
       </c>
       <c r="M16">
-        <v>1.047367059500075</v>
+        <v>1.008050383551879</v>
       </c>
       <c r="N16">
-        <v>1.014352692884872</v>
+        <v>1.006277135284263</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025017445482477</v>
+        <v>0.9800814589111567</v>
       </c>
       <c r="D17">
-        <v>1.028392107345426</v>
+        <v>1.00311266271098</v>
       </c>
       <c r="E17">
-        <v>1.038087981741685</v>
+        <v>0.9959127333601989</v>
       </c>
       <c r="F17">
-        <v>1.044402155263805</v>
+        <v>0.9957727122276131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029889873916782</v>
+        <v>1.039535638712422</v>
       </c>
       <c r="J17">
-        <v>1.031273727252854</v>
+        <v>1.008327198388016</v>
       </c>
       <c r="K17">
-        <v>1.031784677501625</v>
+        <v>1.017066334902743</v>
       </c>
       <c r="L17">
-        <v>1.04144656151598</v>
+        <v>1.009992808715672</v>
       </c>
       <c r="M17">
-        <v>1.047738973062213</v>
+        <v>1.009855269325207</v>
       </c>
       <c r="N17">
-        <v>1.014433281301981</v>
+        <v>1.006692138515601</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025240011800449</v>
+        <v>0.9812539100006907</v>
       </c>
       <c r="D18">
-        <v>1.028551374055836</v>
+        <v>1.003948742731451</v>
       </c>
       <c r="E18">
-        <v>1.038314857912812</v>
+        <v>0.9970260018777528</v>
       </c>
       <c r="F18">
-        <v>1.044661503877708</v>
+        <v>0.9970291521781667</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029927384155663</v>
+        <v>1.039857731115824</v>
       </c>
       <c r="J18">
-        <v>1.031414833957522</v>
+        <v>1.009044319728136</v>
       </c>
       <c r="K18">
-        <v>1.03190112808762</v>
+        <v>1.017699662073758</v>
       </c>
       <c r="L18">
-        <v>1.04163085112192</v>
+        <v>1.010896268626947</v>
       </c>
       <c r="M18">
-        <v>1.047955923215458</v>
+        <v>1.010899364128535</v>
       </c>
       <c r="N18">
-        <v>1.014480261004886</v>
+        <v>1.006932030205165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025315901698051</v>
+        <v>0.9816520019042629</v>
       </c>
       <c r="D19">
-        <v>1.028605669986651</v>
+        <v>1.00423265021005</v>
       </c>
       <c r="E19">
-        <v>1.038392225852454</v>
+        <v>0.9974041292800927</v>
       </c>
       <c r="F19">
-        <v>1.044749949906819</v>
+        <v>0.9974559144239169</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029940134054059</v>
+        <v>1.039966795944337</v>
       </c>
       <c r="J19">
-        <v>1.031462936638214</v>
+        <v>1.009287755905646</v>
       </c>
       <c r="K19">
-        <v>1.031940811233177</v>
+        <v>1.017914566871823</v>
       </c>
       <c r="L19">
-        <v>1.041693685911052</v>
+        <v>1.011203036856319</v>
       </c>
       <c r="M19">
-        <v>1.048029900869578</v>
+        <v>1.01125392698421</v>
       </c>
       <c r="N19">
-        <v>1.01449627542691</v>
+        <v>1.007013463751462</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024976506337267</v>
+        <v>0.9798649897294934</v>
       </c>
       <c r="D20">
-        <v>1.028362806739503</v>
+        <v>1.002958310891214</v>
       </c>
       <c r="E20">
-        <v>1.038046253864806</v>
+        <v>0.9957072534167898</v>
       </c>
       <c r="F20">
-        <v>1.044354457088515</v>
+        <v>0.9955408092088966</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029882955149817</v>
+        <v>1.039476029525203</v>
       </c>
       <c r="J20">
-        <v>1.031247766489846</v>
+        <v>1.008194771225507</v>
       </c>
       <c r="K20">
-        <v>1.031763246145435</v>
+        <v>1.016949340664043</v>
       </c>
       <c r="L20">
-        <v>1.041412661311112</v>
+        <v>1.009826007932373</v>
       </c>
       <c r="M20">
-        <v>1.047699068261805</v>
+        <v>1.009662523929707</v>
       </c>
       <c r="N20">
-        <v>1.014424637631671</v>
+        <v>1.00664783857366</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023873137100676</v>
+        <v>0.9739345353800982</v>
       </c>
       <c r="D21">
-        <v>1.027572553220795</v>
+        <v>0.9987315491843336</v>
       </c>
       <c r="E21">
-        <v>1.036922093127052</v>
+        <v>0.9900853118294477</v>
       </c>
       <c r="F21">
-        <v>1.043069701896874</v>
+        <v>0.9891961185082692</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02969428305326</v>
+        <v>1.037826685956653</v>
       </c>
       <c r="J21">
-        <v>1.030547463197024</v>
+        <v>1.004563964386958</v>
       </c>
       <c r="K21">
-        <v>1.031184339911565</v>
+        <v>1.013736992669615</v>
       </c>
       <c r="L21">
-        <v>1.040498802964034</v>
+        <v>1.005256987476905</v>
       </c>
       <c r="M21">
-        <v>1.046623726576401</v>
+        <v>1.004385105884625</v>
       </c>
       <c r="N21">
-        <v>1.01419142923229</v>
+        <v>1.005433220820227</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023179435098394</v>
+        <v>0.9701082890728964</v>
       </c>
       <c r="D22">
-        <v>1.027075172279327</v>
+        <v>0.9960068454892386</v>
       </c>
       <c r="E22">
-        <v>1.036215772159452</v>
+        <v>0.9864655940550671</v>
       </c>
       <c r="F22">
-        <v>1.042262716062901</v>
+        <v>0.9851110791396367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029573530831871</v>
+        <v>1.036747032054091</v>
       </c>
       <c r="J22">
-        <v>1.030106571174589</v>
+        <v>1.002218926603444</v>
       </c>
       <c r="K22">
-        <v>1.030819116631527</v>
+        <v>1.011657824778101</v>
       </c>
       <c r="L22">
-        <v>1.039924057296119</v>
+        <v>1.002310024231198</v>
       </c>
       <c r="M22">
-        <v>1.0459477922208</v>
+        <v>1.000983373337475</v>
       </c>
       <c r="N22">
-        <v>1.014044567524054</v>
+        <v>1.004648722076183</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023547176745372</v>
+        <v>0.9721462371279896</v>
       </c>
       <c r="D23">
-        <v>1.027338892010531</v>
+        <v>0.9974578288138901</v>
       </c>
       <c r="E23">
-        <v>1.036590160282067</v>
+        <v>0.9883928203356631</v>
       </c>
       <c r="F23">
-        <v>1.042690439498169</v>
+        <v>0.9872860639139677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029637745268745</v>
+        <v>1.037323513315803</v>
       </c>
       <c r="J23">
-        <v>1.030340351541463</v>
+        <v>1.003468164964767</v>
       </c>
       <c r="K23">
-        <v>1.031012845893873</v>
+        <v>1.012765831862087</v>
       </c>
       <c r="L23">
-        <v>1.040228756508636</v>
+        <v>1.003879543766028</v>
       </c>
       <c r="M23">
-        <v>1.046306101062284</v>
+        <v>1.002794903246566</v>
       </c>
       <c r="N23">
-        <v>1.014122443842585</v>
+        <v>1.005066636513964</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024995004964824</v>
+        <v>0.9799628339437716</v>
       </c>
       <c r="D24">
-        <v>1.028376046601937</v>
+        <v>1.003028077486004</v>
       </c>
       <c r="E24">
-        <v>1.038065108731429</v>
+        <v>0.9958001280865888</v>
       </c>
       <c r="F24">
-        <v>1.044376009569964</v>
+        <v>0.9956456267249005</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029886082173422</v>
+        <v>1.039502978325371</v>
       </c>
       <c r="J24">
-        <v>1.031259497242353</v>
+        <v>1.008254629352967</v>
       </c>
       <c r="K24">
-        <v>1.031772930480404</v>
+        <v>1.017002224550218</v>
       </c>
       <c r="L24">
-        <v>1.041427979412553</v>
+        <v>1.009901401809525</v>
       </c>
       <c r="M24">
-        <v>1.047717099463813</v>
+        <v>1.009749643995117</v>
       </c>
       <c r="N24">
-        <v>1.014428543415039</v>
+        <v>1.006667862511708</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026675253251066</v>
+        <v>0.9886405634620905</v>
       </c>
       <c r="D25">
-        <v>1.029577320201899</v>
+        <v>1.009218342614836</v>
       </c>
       <c r="E25">
-        <v>1.039778793812731</v>
+        <v>1.004053183660567</v>
       </c>
       <c r="F25">
-        <v>1.046335455750526</v>
+        <v>1.0049608865267</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030164985523665</v>
+        <v>1.041855267092451</v>
       </c>
       <c r="J25">
-        <v>1.032323558452468</v>
+        <v>1.013556360110727</v>
       </c>
       <c r="K25">
-        <v>1.032649534878781</v>
+        <v>1.02167522150042</v>
       </c>
       <c r="L25">
-        <v>1.042818871155482</v>
+        <v>1.016588903339262</v>
       </c>
       <c r="M25">
-        <v>1.04935523907354</v>
+        <v>1.017482676176027</v>
       </c>
       <c r="N25">
-        <v>1.014782728101261</v>
+        <v>1.008441290989243</v>
       </c>
     </row>
   </sheetData>
